--- a/99-exceldmd/PIM2.0v6 - Base Data Model (abc).xlsx
+++ b/99-exceldmd/PIM2.0v6 - Base Data Model (abc).xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16815" windowHeight="7755" tabRatio="500" firstSheet="2" activeTab="6"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16815" windowHeight="7755" tabRatio="500" firstSheet="3" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="HELP" sheetId="1" r:id="rId1"/>
@@ -48,8 +48,8 @@
   </definedNames>
   <calcPr calcId="152511"/>
   <customWorkbookViews>
+    <customWorkbookView name="Microsoft Office User - Personal View" guid="{BF8E1B46-AD75-6E4F-85B7-6E6C75F2AAA2}" mergeInterval="0" personalView="1" windowWidth="1472" windowHeight="548" tabRatio="500" activeSheetId="4"/>
     <customWorkbookView name="Gupta, Kunal - Personal View" guid="{F59B42B5-12A6-408C-8984-297F5E3274B0}" mergeInterval="0" personalView="1" maximized="1" xWindow="-8" yWindow="-8" windowWidth="1382" windowHeight="744" tabRatio="500" activeSheetId="4"/>
-    <customWorkbookView name="Microsoft Office User - Personal View" guid="{BF8E1B46-AD75-6E4F-85B7-6E6C75F2AAA2}" mergeInterval="0" personalView="1" windowWidth="1472" windowHeight="548" tabRatio="500" activeSheetId="4"/>
   </customWorkbookViews>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
@@ -140,7 +140,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1674" uniqueCount="377">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1658" uniqueCount="374">
   <si>
     <t>ACTION</t>
   </si>
@@ -1256,15 +1256,6 @@
   </si>
   <si>
     <t>Link Description</t>
-  </si>
-  <si>
-    <t>hasimages</t>
-  </si>
-  <si>
-    <t>association</t>
-  </si>
-  <si>
-    <t>Images</t>
   </si>
   <si>
     <t>childof</t>
@@ -3547,12 +3538,12 @@
     </row>
   </sheetData>
   <customSheetViews>
+    <customSheetView guid="{BF8E1B46-AD75-6E4F-85B7-6E6C75F2AAA2}">
+      <selection activeCell="A5" sqref="A5"/>
+      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+    </customSheetView>
     <customSheetView guid="{F59B42B5-12A6-408C-8984-297F5E3274B0}">
       <selection activeCell="B34" sqref="B34"/>
-      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-    </customSheetView>
-    <customSheetView guid="{BF8E1B46-AD75-6E4F-85B7-6E6C75F2AAA2}">
-      <selection activeCell="A5" sqref="A5"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
     </customSheetView>
   </customSheetViews>
@@ -3673,12 +3664,12 @@
     </row>
   </sheetData>
   <customSheetViews>
-    <customSheetView guid="{F59B42B5-12A6-408C-8984-297F5E3274B0}" scale="125">
+    <customSheetView guid="{BF8E1B46-AD75-6E4F-85B7-6E6C75F2AAA2}" scale="125">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozenSplit"/>
       <selection pane="bottomLeft" activeCell="E12" sqref="E12"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
     </customSheetView>
-    <customSheetView guid="{BF8E1B46-AD75-6E4F-85B7-6E6C75F2AAA2}" scale="125">
+    <customSheetView guid="{F59B42B5-12A6-408C-8984-297F5E3274B0}" scale="125">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozenSplit"/>
       <selection pane="bottomLeft" activeCell="E12" sqref="E12"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3853,11 +3844,11 @@
     </row>
   </sheetData>
   <customSheetViews>
-    <customSheetView guid="{F59B42B5-12A6-408C-8984-297F5E3274B0}" scale="138">
+    <customSheetView guid="{BF8E1B46-AD75-6E4F-85B7-6E6C75F2AAA2}" scale="138">
       <selection activeCell="B11" sqref="B11"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
     </customSheetView>
-    <customSheetView guid="{BF8E1B46-AD75-6E4F-85B7-6E6C75F2AAA2}" scale="138">
+    <customSheetView guid="{F59B42B5-12A6-408C-8984-297F5E3274B0}" scale="138">
       <selection activeCell="B11" sqref="B11"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
     </customSheetView>
@@ -3924,7 +3915,7 @@
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:D4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozenSplit"/>
       <selection activeCell="B2" sqref="B2:B437"/>
       <selection pane="bottomLeft" activeCell="B8" sqref="B8"/>
@@ -3978,14 +3969,14 @@
     </row>
   </sheetData>
   <customSheetViews>
+    <customSheetView guid="{BF8E1B46-AD75-6E4F-85B7-6E6C75F2AAA2}" scale="150">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozenSplit"/>
+      <selection pane="bottomLeft" activeCell="C21" sqref="C21"/>
+      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+    </customSheetView>
     <customSheetView guid="{F59B42B5-12A6-408C-8984-297F5E3274B0}" scale="150">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozenSplit"/>
       <selection pane="bottomLeft" activeCell="B6" sqref="B6"/>
-      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-    </customSheetView>
-    <customSheetView guid="{BF8E1B46-AD75-6E4F-85B7-6E6C75F2AAA2}" scale="150">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozenSplit"/>
-      <selection pane="bottomLeft" activeCell="C21" sqref="C21"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
     </customSheetView>
   </customSheetViews>
@@ -12346,9 +12337,9 @@
   </sheetData>
   <autoFilter ref="A1:V433"/>
   <customSheetViews>
-    <customSheetView guid="{F59B42B5-12A6-408C-8984-297F5E3274B0}" scale="80" showAutoFilter="1" topLeftCell="E1">
-      <pane ySplit="1" topLeftCell="A103" activePane="bottomLeft" state="frozenSplit"/>
-      <selection pane="bottomLeft" activeCell="G109" sqref="G109"/>
+    <customSheetView guid="{BF8E1B46-AD75-6E4F-85B7-6E6C75F2AAA2}" showAutoFilter="1">
+      <pane ySplit="1" topLeftCell="A318" activePane="bottomLeft" state="frozenSplit"/>
+      <selection pane="bottomLeft" activeCell="B322" sqref="B322"/>
       <colBreaks count="1" manualBreakCount="1">
         <brk id="2" max="1048575" man="1"/>
       </colBreaks>
@@ -12356,9 +12347,9 @@
       <pageSetup orientation="portrait" r:id="rId1"/>
       <autoFilter ref="A1:AE347"/>
     </customSheetView>
-    <customSheetView guid="{BF8E1B46-AD75-6E4F-85B7-6E6C75F2AAA2}" showAutoFilter="1">
-      <pane ySplit="1" topLeftCell="A318" activePane="bottomLeft" state="frozenSplit"/>
-      <selection pane="bottomLeft" activeCell="B322" sqref="B322"/>
+    <customSheetView guid="{F59B42B5-12A6-408C-8984-297F5E3274B0}" scale="80" showAutoFilter="1" topLeftCell="E1">
+      <pane ySplit="1" topLeftCell="A103" activePane="bottomLeft" state="frozenSplit"/>
+      <selection pane="bottomLeft" activeCell="G109" sqref="G109"/>
       <colBreaks count="1" manualBreakCount="1">
         <brk id="2" max="1048575" man="1"/>
       </colBreaks>
@@ -12738,7 +12729,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozenSplit"/>
-      <selection pane="bottomLeft" activeCell="B5" sqref="B5"/>
+      <selection pane="bottomLeft" activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -12819,7 +12810,7 @@
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B3" s="25" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
       <c r="C3" s="25" t="s">
         <v>35</v>
@@ -12845,7 +12836,7 @@
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B4" s="25" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="C4" s="25" t="s">
         <v>136</v>
@@ -12869,48 +12860,6 @@
       </c>
       <c r="K4" s="25">
         <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" s="25" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="25" t="s">
-        <v>372</v>
-      </c>
-      <c r="C5" s="25" t="s">
-        <v>373</v>
-      </c>
-      <c r="D5" s="25" t="s">
-        <v>142</v>
-      </c>
-      <c r="E5" s="25" t="s">
-        <v>186</v>
-      </c>
-      <c r="F5" s="42"/>
-      <c r="G5" s="25" t="s">
-        <v>82</v>
-      </c>
-      <c r="H5" s="25" t="s">
-        <v>374</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" s="25" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="25" t="s">
-        <v>372</v>
-      </c>
-      <c r="C6" s="25" t="s">
-        <v>373</v>
-      </c>
-      <c r="D6" s="25" t="s">
-        <v>144</v>
-      </c>
-      <c r="E6" s="25" t="s">
-        <v>186</v>
-      </c>
-      <c r="F6" s="42"/>
-      <c r="G6" s="25" t="s">
-        <v>82</v>
-      </c>
-      <c r="H6" s="25" t="s">
-        <v>374</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
@@ -12939,14 +12888,14 @@
     </row>
   </sheetData>
   <customSheetViews>
+    <customSheetView guid="{BF8E1B46-AD75-6E4F-85B7-6E6C75F2AAA2}" scale="107">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozenSplit"/>
+      <selection pane="bottomLeft" activeCell="I2" sqref="I2"/>
+      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+    </customSheetView>
     <customSheetView guid="{F59B42B5-12A6-408C-8984-297F5E3274B0}" scale="107">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozenSplit"/>
       <selection pane="bottomLeft" activeCell="C11" sqref="C11"/>
-      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-    </customSheetView>
-    <customSheetView guid="{BF8E1B46-AD75-6E4F-85B7-6E6C75F2AAA2}" scale="107">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozenSplit"/>
-      <selection pane="bottomLeft" activeCell="I2" sqref="I2"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
     </customSheetView>
   </customSheetViews>
@@ -12961,11 +12910,11 @@
   <sheetPr codeName="Sheet6"/>
   <dimension ref="A1:AA504"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="4" ySplit="1" topLeftCell="E201" activePane="bottomRight" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="4" ySplit="1" topLeftCell="E2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="D207" sqref="D207"/>
+      <selection pane="bottomRight" activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -16390,7 +16339,7 @@
       <c r="C95" s="25"/>
       <c r="D95" s="25"/>
       <c r="E95" s="47" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
       <c r="F95" s="25"/>
       <c r="G95" s="25"/>
@@ -19721,7 +19670,7 @@
       <c r="C189" s="25"/>
       <c r="D189" s="25"/>
       <c r="E189" s="25" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="F189" s="25"/>
       <c r="G189" s="25"/>
@@ -20448,7 +20397,7 @@
       <c r="A210" s="25"/>
       <c r="B210" s="25"/>
       <c r="C210" s="25" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
       <c r="D210" s="25" t="s">
         <v>342</v>
@@ -20481,7 +20430,7 @@
       <c r="A211" s="25"/>
       <c r="B211" s="25"/>
       <c r="C211" s="25" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
       <c r="D211" s="25" t="s">
         <v>344</v>
@@ -20514,7 +20463,7 @@
       <c r="A212" s="25"/>
       <c r="B212" s="25"/>
       <c r="C212" s="25" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
       <c r="D212" s="25" t="s">
         <v>346</v>
@@ -20547,7 +20496,7 @@
       <c r="A213"/>
       <c r="B213"/>
       <c r="C213" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="D213" t="s">
         <v>369</v>
@@ -20575,70 +20524,6 @@
       <c r="Y213"/>
       <c r="Z213"/>
       <c r="AA213"/>
-    </row>
-    <row r="214" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A214"/>
-      <c r="B214" t="s">
-        <v>142</v>
-      </c>
-      <c r="D214"/>
-      <c r="E214" t="s">
-        <v>372</v>
-      </c>
-      <c r="F214"/>
-      <c r="G214"/>
-      <c r="H214"/>
-      <c r="I214"/>
-      <c r="J214"/>
-      <c r="K214"/>
-      <c r="L214"/>
-      <c r="M214"/>
-      <c r="N214"/>
-      <c r="O214"/>
-      <c r="P214"/>
-      <c r="Q214"/>
-      <c r="R214"/>
-      <c r="S214"/>
-      <c r="T214"/>
-      <c r="U214"/>
-      <c r="V214"/>
-      <c r="W214"/>
-      <c r="X214"/>
-      <c r="Y214"/>
-      <c r="Z214"/>
-      <c r="AA214"/>
-    </row>
-    <row r="215" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A215"/>
-      <c r="B215" t="s">
-        <v>144</v>
-      </c>
-      <c r="D215"/>
-      <c r="E215" s="25" t="s">
-        <v>372</v>
-      </c>
-      <c r="F215"/>
-      <c r="G215"/>
-      <c r="H215"/>
-      <c r="I215"/>
-      <c r="J215"/>
-      <c r="K215"/>
-      <c r="L215"/>
-      <c r="M215"/>
-      <c r="N215"/>
-      <c r="O215"/>
-      <c r="P215"/>
-      <c r="Q215"/>
-      <c r="R215"/>
-      <c r="S215"/>
-      <c r="T215"/>
-      <c r="U215"/>
-      <c r="V215"/>
-      <c r="W215"/>
-      <c r="X215"/>
-      <c r="Y215"/>
-      <c r="Z215"/>
-      <c r="AA215"/>
     </row>
     <row r="216" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A216"/>
@@ -29035,12 +28920,6 @@
     <sortCondition ref="B2:B192"/>
   </sortState>
   <customSheetViews>
-    <customSheetView guid="{F59B42B5-12A6-408C-8984-297F5E3274B0}" scale="80" showAutoFilter="1">
-      <pane ySplit="1" topLeftCell="A229" activePane="bottomLeft" state="frozenSplit"/>
-      <selection pane="bottomLeft" activeCell="D243" sqref="D243"/>
-      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-      <autoFilter ref="A1:AA594"/>
-    </customSheetView>
     <customSheetView guid="{BF8E1B46-AD75-6E4F-85B7-6E6C75F2AAA2}" scale="130" filter="1" showAutoFilter="1" hiddenRows="1">
       <selection activeCell="E10" sqref="E10"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -29051,6 +28930,12 @@
           </filters>
         </filterColumn>
       </autoFilter>
+    </customSheetView>
+    <customSheetView guid="{F59B42B5-12A6-408C-8984-297F5E3274B0}" scale="80" showAutoFilter="1">
+      <pane ySplit="1" topLeftCell="A229" activePane="bottomLeft" state="frozenSplit"/>
+      <selection pane="bottomLeft" activeCell="D243" sqref="D243"/>
+      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+      <autoFilter ref="A1:AA594"/>
     </customSheetView>
   </customSheetViews>
   <conditionalFormatting sqref="B505:B4874">
@@ -29304,12 +29189,12 @@
     <sortCondition ref="B2:B41"/>
   </sortState>
   <customSheetViews>
-    <customSheetView guid="{F59B42B5-12A6-408C-8984-297F5E3274B0}" scale="138">
+    <customSheetView guid="{BF8E1B46-AD75-6E4F-85B7-6E6C75F2AAA2}" scale="138">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozenSplit"/>
       <selection pane="bottomLeft" activeCell="E28" sqref="E28"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
     </customSheetView>
-    <customSheetView guid="{BF8E1B46-AD75-6E4F-85B7-6E6C75F2AAA2}" scale="138">
+    <customSheetView guid="{F59B42B5-12A6-408C-8984-297F5E3274B0}" scale="138">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozenSplit"/>
       <selection pane="bottomLeft" activeCell="E28" sqref="E28"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -29407,12 +29292,12 @@
     </row>
   </sheetData>
   <customSheetViews>
-    <customSheetView guid="{F59B42B5-12A6-408C-8984-297F5E3274B0}" scale="125">
+    <customSheetView guid="{BF8E1B46-AD75-6E4F-85B7-6E6C75F2AAA2}" scale="125">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozenSplit"/>
       <selection pane="bottomLeft" activeCell="E32" sqref="E32"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
     </customSheetView>
-    <customSheetView guid="{BF8E1B46-AD75-6E4F-85B7-6E6C75F2AAA2}" scale="125">
+    <customSheetView guid="{F59B42B5-12A6-408C-8984-297F5E3274B0}" scale="125">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozenSplit"/>
       <selection pane="bottomLeft" activeCell="E32" sqref="E32"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -29424,26 +29309,55 @@
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<spe:Receivers xmlns:spe="http://schemas.microsoft.com/sharepoint/events">
+  <Receiver>
+    <Name>Document ID Generator</Name>
+    <Synchronization>Synchronous</Synchronization>
+    <Type>10001</Type>
+    <SequenceNumber>1000</SequenceNumber>
+    <Url/>
+    <Assembly>Microsoft.Office.DocumentManagement, Version=16.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
+    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
+    <Data/>
+    <Filter/>
+  </Receiver>
+  <Receiver>
+    <Name>Document ID Generator</Name>
+    <Synchronization>Synchronous</Synchronization>
+    <Type>10002</Type>
+    <SequenceNumber>1001</SequenceNumber>
+    <Url/>
+    <Assembly>Microsoft.Office.DocumentManagement, Version=16.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
+    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
+    <Data/>
+    <Filter/>
+  </Receiver>
+  <Receiver>
+    <Name>Document ID Generator</Name>
+    <Synchronization>Synchronous</Synchronization>
+    <Type>10004</Type>
+    <SequenceNumber>1002</SequenceNumber>
+    <Url/>
+    <Assembly>Microsoft.Office.DocumentManagement, Version=16.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
+    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
+    <Data/>
+    <Filter/>
+  </Receiver>
+  <Receiver>
+    <Name>Document ID Generator</Name>
+    <Synchronization>Synchronous</Synchronization>
+    <Type>10006</Type>
+    <SequenceNumber>1003</SequenceNumber>
+    <Url/>
+    <Assembly>Microsoft.Office.DocumentManagement, Version=16.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
+    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
+    <Data/>
+    <Filter/>
+  </Receiver>
+</spe:Receivers>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_dlc_DocId xmlns="0fff5a07-2326-481b-a4e9-87ff7a79f8dd">Z7QZ4QWJDNQ7-73874190-24</_dlc_DocId>
-    <_dlc_DocIdUrl xmlns="0fff5a07-2326-481b-a4e9-87ff7a79f8dd">
-      <Url>https://jcp.sharepoint.com/sites/SPOProjects/JCPDotcomPortfolio/AssortmentExpansion/_layouts/15/DocIdRedir.aspx?ID=Z7QZ4QWJDNQ7-73874190-24</Url>
-      <Description>Z7QZ4QWJDNQ7-73874190-24</Description>
-    </_dlc_DocIdUrl>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101003CF273DB610BE64D8338C714685CCF46" ma:contentTypeVersion="0" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="2352d1590348b4df6d1de565ccbd102a">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="0fff5a07-2326-481b-a4e9-87ff7a79f8dd" xmlns:ns3="2e2046eb-f52d-433a-aad8-97c651e3992c" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="b5c0a0cba47b5c64de8255dd546e4ec9" ns2:_="" ns3:_="">
     <xsd:import namespace="0fff5a07-2326-481b-a4e9-87ff7a79f8dd"/>
@@ -29621,82 +29535,36 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_dlc_DocId xmlns="0fff5a07-2326-481b-a4e9-87ff7a79f8dd">Z7QZ4QWJDNQ7-73874190-24</_dlc_DocId>
+    <_dlc_DocIdUrl xmlns="0fff5a07-2326-481b-a4e9-87ff7a79f8dd">
+      <Url>https://jcp.sharepoint.com/sites/SPOProjects/JCPDotcomPortfolio/AssortmentExpansion/_layouts/15/DocIdRedir.aspx?ID=Z7QZ4QWJDNQ7-73874190-24</Url>
+      <Description>Z7QZ4QWJDNQ7-73874190-24</Description>
+    </_dlc_DocIdUrl>
+  </documentManagement>
+</p:properties>
+</file>
+
 <file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
-<spe:Receivers xmlns:spe="http://schemas.microsoft.com/sharepoint/events">
-  <Receiver>
-    <Name>Document ID Generator</Name>
-    <Synchronization>Synchronous</Synchronization>
-    <Type>10001</Type>
-    <SequenceNumber>1000</SequenceNumber>
-    <Url/>
-    <Assembly>Microsoft.Office.DocumentManagement, Version=16.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
-    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
-    <Data/>
-    <Filter/>
-  </Receiver>
-  <Receiver>
-    <Name>Document ID Generator</Name>
-    <Synchronization>Synchronous</Synchronization>
-    <Type>10002</Type>
-    <SequenceNumber>1001</SequenceNumber>
-    <Url/>
-    <Assembly>Microsoft.Office.DocumentManagement, Version=16.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
-    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
-    <Data/>
-    <Filter/>
-  </Receiver>
-  <Receiver>
-    <Name>Document ID Generator</Name>
-    <Synchronization>Synchronous</Synchronization>
-    <Type>10004</Type>
-    <SequenceNumber>1002</SequenceNumber>
-    <Url/>
-    <Assembly>Microsoft.Office.DocumentManagement, Version=16.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
-    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
-    <Data/>
-    <Filter/>
-  </Receiver>
-  <Receiver>
-    <Name>Document ID Generator</Name>
-    <Synchronization>Synchronous</Synchronization>
-    <Type>10006</Type>
-    <SequenceNumber>1003</SequenceNumber>
-    <Url/>
-    <Assembly>Microsoft.Office.DocumentManagement, Version=16.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
-    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
-    <Data/>
-    <Filter/>
-  </Receiver>
-</spe:Receivers>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{544FA98A-5D89-41A3-B3E3-9D6D7A4BCA0D}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A58437D0-211E-4689-9BB7-1D7150BF8997}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/events"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6E9ADEF4-6C25-4BA4-9EDB-E28F722B8411}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="2e2046eb-f52d-433a-aad8-97c651e3992c"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="0fff5a07-2326-481b-a4e9-87ff7a79f8dd"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8CAC4C16-FDF5-437E-A8C4-D650CA39502E}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -29715,10 +29583,27 @@
 </ds:datastoreItem>
 </file>
 
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6E9ADEF4-6C25-4BA4-9EDB-E28F722B8411}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="2e2046eb-f52d-433a-aad8-97c651e3992c"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="0fff5a07-2326-481b-a4e9-87ff7a79f8dd"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
 <file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A58437D0-211E-4689-9BB7-1D7150BF8997}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{544FA98A-5D89-41A3-B3E3-9D6D7A4BCA0D}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/events"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>